--- a/ProbabilityAndStatistics/Parcial 2.xlsx
+++ b/ProbabilityAndStatistics/Parcial 2.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\Sem6ULSA\ULSA-6th-Semester\ProbabilityAndStatistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D4FB3A-DDA1-462A-85F1-DF7B106F49BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564317CA-B591-4CD6-9A6D-DDD142409CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="p1" sheetId="1" r:id="rId1"/>
     <sheet name="p2" sheetId="2" r:id="rId2"/>
     <sheet name="combinacion si se repiten" sheetId="3" r:id="rId3"/>
+    <sheet name="p3" sheetId="4" r:id="rId4"/>
+    <sheet name="venn" sheetId="5" r:id="rId5"/>
+    <sheet name="venn tarea" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="179">
   <si>
     <t>x</t>
   </si>
@@ -393,12 +396,247 @@
   <si>
     <t>Formas diferentes de distribuir 3 ws 4 lps 3 sts a 3 empleados</t>
   </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Seleccionar 2 cartas, de cuantas formas se puede formar una mano?</t>
+  </si>
+  <si>
+    <t>Hay repeticion</t>
+  </si>
+  <si>
+    <t>grupos repetidos</t>
+  </si>
+  <si>
+    <t>m1=</t>
+  </si>
+  <si>
+    <t>m2=</t>
+  </si>
+  <si>
+    <t>m4=</t>
+  </si>
+  <si>
+    <t>m5=</t>
+  </si>
+  <si>
+    <t>m3=</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>grupos(n)</t>
+  </si>
+  <si>
+    <t>USAR COMBINACIONES CON REPETICION</t>
+  </si>
+  <si>
+    <t>n=</t>
+  </si>
+  <si>
+    <t>m=</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =</t>
+  </si>
+  <si>
+    <t>Que probabilidad hay de hacer una jugada con pares?</t>
+  </si>
+  <si>
+    <t>Jugadas con pares</t>
+  </si>
+  <si>
+    <t>Total de jugadas</t>
+  </si>
+  <si>
+    <t>Que probabilidad hay de sacar un As en la jugada</t>
+  </si>
+  <si>
+    <t>Que probabilidad hay de sacar exactamente 1 rey en la jugada</t>
+  </si>
+  <si>
+    <t>jugadas con un solo rey</t>
+  </si>
+  <si>
+    <t>total jugadas</t>
+  </si>
+  <si>
+    <t>si queremos sacar 3 cartas cuandtas jugadas podemos hacer</t>
+  </si>
+  <si>
+    <t>grupos=</t>
+  </si>
+  <si>
+    <t>cartas por mano =</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>m5</t>
+  </si>
+  <si>
+    <t>Usamos combinaciones con repeticion</t>
+  </si>
+  <si>
+    <t>Jugadas diferentes con 3 cartas</t>
+  </si>
+  <si>
+    <t>probabilidad de hacer una tercia con 3 cartas iguales</t>
+  </si>
+  <si>
+    <t>3 cartas iguales</t>
+  </si>
+  <si>
+    <t>jugadas iguales</t>
+  </si>
+  <si>
+    <t>probabilidad de hacer un par o dos cartas iguales</t>
+  </si>
+  <si>
+    <t>dos cartas iguales</t>
+  </si>
+  <si>
+    <t>jugadas totales</t>
+  </si>
+  <si>
+    <t>Diagramas venn</t>
+  </si>
+  <si>
+    <t>A={Elementos color amarillo}</t>
+  </si>
+  <si>
+    <t>B={Pares}</t>
+  </si>
+  <si>
+    <t>Todos los pares color amarillo</t>
+  </si>
+  <si>
+    <t>2,4,10</t>
+  </si>
+  <si>
+    <t>C={Estrellas}</t>
+  </si>
+  <si>
+    <t>Todas  estrellas pares</t>
+  </si>
+  <si>
+    <t>6,10,14</t>
+  </si>
+  <si>
+    <t>A n B n C</t>
+  </si>
+  <si>
+    <t>Todas  estrellas pares amarillas</t>
+  </si>
+  <si>
+    <r>
+      <t>(A n B n C)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>Complementario</t>
+  </si>
+  <si>
+    <t>Todas  lo que no es el 10</t>
+  </si>
+  <si>
+    <t>universo quitando el 10</t>
+  </si>
+  <si>
+    <t>B n C</t>
+  </si>
+  <si>
+    <t>A n B</t>
+  </si>
+  <si>
+    <t>A - B</t>
+  </si>
+  <si>
+    <t>La diferencia de los conjuntos A y B, es decir, los elementos de A que no están en B:</t>
+  </si>
+  <si>
+    <t>A−B={1,5,11}</t>
+  </si>
+  <si>
+    <t>B -A</t>
+  </si>
+  <si>
+    <t>La diferencia de los conjuntos B y A, es decir, los elementos de B que no están en A:</t>
+  </si>
+  <si>
+    <t>B−A={6,8,12,14,16,18}</t>
+  </si>
+  <si>
+    <t>A -C</t>
+  </si>
+  <si>
+    <t>La diferencia de los conjuntos AA y CC, es decir, los elementos de AA que no están en CC:</t>
+  </si>
+  <si>
+    <t>A−C={2,4,5,11}</t>
+  </si>
+  <si>
+    <t>C - A</t>
+  </si>
+  <si>
+    <t>La diferencia de los conjuntos C y A, es decir, los elementos de C que no están en A:</t>
+  </si>
+  <si>
+    <t>C−A={3,6,7,14,17}</t>
+  </si>
+  <si>
+    <t>B − C</t>
+  </si>
+  <si>
+    <t>Diagramas tarea Jorge Parra ITIT 13104</t>
+  </si>
+  <si>
+    <t>La diferencia de los conjuntos B y C, es decir, los elementos de B que no están en C:</t>
+  </si>
+  <si>
+    <t>B−C={2,4,8,12,16,18}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,8 +692,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,8 +763,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -574,12 +875,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -617,10 +927,21 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -632,13 +953,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,14 +974,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2560,6 +2903,368 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266174</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C0FA1A-3538-0881-2222-5BAEB7A44802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3371850" y="1190625"/>
+          <a:ext cx="4209524" cy="1200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>162995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>181565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFEC7E52-3A25-97EB-ACD3-8C170C7B7E1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048374" y="810695"/>
+          <a:ext cx="5734051" cy="3257070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190265</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>18974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16672019-8E33-2E6F-8376-ECA3BC927C0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="57150"/>
+          <a:ext cx="1876190" cy="609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F8B18A-856E-453C-BC41-0AC2417F2736}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="1276230"/>
+          <a:ext cx="4600576" cy="2591464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>115855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>307068</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28002A1-34B6-456C-7A81-5195497D6255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="5145055"/>
+          <a:ext cx="4736193" cy="2665445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>6522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>106792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01032A51-A6D3-0EF7-F65F-078DCE169E8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6343650" y="5035722"/>
+          <a:ext cx="4943475" cy="2767270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>106231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>46883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B854846-D5DD-DF64-390E-90AA903BB690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323851" y="8945431"/>
+          <a:ext cx="4953000" cy="2798152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>265385</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>46884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7848B44E-3602-9955-C03D-36B11022F320}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="8905478"/>
+          <a:ext cx="5037410" cy="2838106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2825,7 +3530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A19:R80"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
@@ -2871,21 +3576,21 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
       <c r="L21" t="s">
         <v>20</v>
       </c>
@@ -3323,10 +4028,10 @@
       <c r="C48" t="s">
         <v>10</v>
       </c>
-      <c r="J48" s="20" t="s">
+      <c r="J48" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K48" s="20"/>
+      <c r="K48" s="25"/>
       <c r="L48" s="10">
         <v>2</v>
       </c>
@@ -3450,11 +4155,11 @@
       <c r="R60" s="12"/>
     </row>
     <row r="61" spans="1:18">
-      <c r="H61" s="21" t="s">
+      <c r="H61" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="10" t="s">
@@ -3492,11 +4197,11 @@
         <f>PERMUT(B62,B63)</f>
         <v>12144</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
       <c r="L64" s="10" t="s">
         <v>40</v>
       </c>
@@ -3504,33 +4209,33 @@
         <f>COMBIN(M62,M63)</f>
         <v>2024.0000000000002</v>
       </c>
-      <c r="O64" s="18" t="s">
+      <c r="O64" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
     </row>
     <row r="67" spans="1:18" ht="21">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="10" t="s">
@@ -3539,11 +4244,11 @@
       <c r="B69" s="10">
         <v>12</v>
       </c>
-      <c r="H69" s="21" t="s">
+      <c r="H69" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
       <c r="L69" s="10" t="s">
         <v>34</v>
       </c>
@@ -3575,11 +4280,11 @@
         <f>PERMUT(B69,B70)</f>
         <v>3991680</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
       <c r="L71" s="10" t="s">
         <v>40</v>
       </c>
@@ -3587,73 +4292,73 @@
         <f>COMBIN(M69,M70)</f>
         <v>792</v>
       </c>
-      <c r="O71" s="18" t="s">
+      <c r="O71" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
     </row>
     <row r="74" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
-      <c r="O74" s="23"/>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="23"/>
-      <c r="R74" s="23"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
     </row>
     <row r="75" spans="1:18" ht="15" customHeight="1">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
-      <c r="O75" s="23"/>
-      <c r="P75" s="23"/>
-      <c r="Q75" s="23"/>
-      <c r="R75" s="23"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="22"/>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="23"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="23"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="10" t="s">
@@ -3662,11 +4367,11 @@
       <c r="B78" s="10">
         <v>9</v>
       </c>
-      <c r="H78" s="21" t="s">
+      <c r="H78" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
       <c r="L78" s="10" t="s">
         <v>34</v>
       </c>
@@ -3698,11 +4403,11 @@
         <f>PERMUT(B78,B79)</f>
         <v>3024</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
       <c r="L80" s="10" t="s">
         <v>40</v>
       </c>
@@ -3710,21 +4415,14 @@
         <f>COMBIN(M78,M79)</f>
         <v>126</v>
       </c>
-      <c r="O80" s="18" t="s">
+      <c r="O80" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="O64:Q64"/>
-    <mergeCell ref="O71:Q71"/>
-    <mergeCell ref="O80:Q80"/>
-    <mergeCell ref="A67:R67"/>
-    <mergeCell ref="A74:R76"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D71:F71"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
@@ -3733,6 +4431,13 @@
     <mergeCell ref="H61:J61"/>
     <mergeCell ref="H69:J69"/>
     <mergeCell ref="H78:J78"/>
+    <mergeCell ref="O64:Q64"/>
+    <mergeCell ref="O71:Q71"/>
+    <mergeCell ref="O80:Q80"/>
+    <mergeCell ref="A67:R67"/>
+    <mergeCell ref="A74:R76"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D71:F71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3744,7 +4449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA17DA3A-4A42-4F00-97FE-DE4EA473FF7F}">
   <dimension ref="A2:X119"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A107" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
@@ -3857,60 +4562,60 @@
         <f>FACT(N4)/(FACT(N5)*FACT(N6))</f>
         <v>30</v>
       </c>
-      <c r="S9" s="20" t="s">
+      <c r="S9" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
     </row>
     <row r="10" spans="2:24">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" spans="2:24">
-      <c r="B11" s="20">
+      <c r="B11" s="25">
         <f>PERMUT(C6,C7)</f>
         <v>120</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="15" t="s">
@@ -3950,25 +4655,25 @@
       <c r="G38" s="29"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="15" t="s">
@@ -3993,11 +4698,11 @@
       </c>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="16" t="s">
@@ -4039,25 +4744,25 @@
       <c r="H58" s="29"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="15" t="s">
@@ -4093,11 +4798,11 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="16" t="s">
@@ -4131,34 +4836,34 @@
         <f>FACT(B76)/(FACT(C71)*FACT(C72))</f>
         <v>180</v>
       </c>
-      <c r="D78" s="25" t="s">
+      <c r="D78" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="27"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="33"/>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="24" t="s">
+      <c r="B89" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
     </row>
     <row r="90" spans="2:9">
-      <c r="B90" s="24" t="s">
+      <c r="B90" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
     </row>
     <row r="91" spans="2:9">
-      <c r="B91" s="24" t="s">
+      <c r="B91" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="15" t="s">
@@ -4245,35 +4950,35 @@
         <f>FACT(C93)/(FACT(C94)*FACT(C95))</f>
         <v>2520</v>
       </c>
-      <c r="D99" s="25" t="s">
+      <c r="D99" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="27"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="33"/>
     </row>
     <row r="103" spans="2:8" ht="14.25" customHeight="1"/>
     <row r="110" spans="2:8">
-      <c r="B110" s="24" t="s">
+      <c r="B110" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
     </row>
     <row r="111" spans="2:8">
-      <c r="B111" s="24" t="s">
+      <c r="B111" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
     </row>
     <row r="112" spans="2:8">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
     </row>
     <row r="114" spans="2:8">
       <c r="B114" s="15" t="s">
@@ -4348,31 +5053,16 @@
         <f>FACT(C114)/(FACT(C115)*FACT(C116)*FACT(C117))</f>
         <v>1260</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E119" s="26"/>
-      <c r="F119" s="26"/>
-      <c r="G119" s="26"/>
-      <c r="H119" s="27"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="S9:X9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
     <mergeCell ref="D119:H119"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B73:D73"/>
@@ -4384,6 +5074,21 @@
     <mergeCell ref="B110:D110"/>
     <mergeCell ref="B111:D111"/>
     <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="S9:X9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4394,7 +5099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991CAFF1-F0EB-4158-A4EE-F9A6A0F8C615}">
   <dimension ref="A3:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
@@ -4420,11 +5125,11 @@
       </c>
     </row>
     <row r="6" spans="14:20">
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="14:20">
       <c r="N7" s="10" t="s">
@@ -4439,13 +5144,13 @@
         <f>FACT(3+5-1)/(FACT(5)*(FACT(3-1)))</f>
         <v>21</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="10" t="s">
@@ -4469,30 +5174,30 @@
         <f>FACT(2+6-1)/(FACT(6)*FACT(2-1))</f>
         <v>7</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="10" t="s">
@@ -4516,29 +5221,29 @@
         <f>FACT(B40+B39-1)/(FACT(B39)*FACT(B40-1))</f>
         <v>84</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="10" t="s">
@@ -4562,30 +5267,30 @@
         <f>FACT(B53+B52-1)/(FACT(B52)*FACT(B53-1))</f>
         <v>12</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="10" t="s">
@@ -4609,38 +5314,33 @@
         <f>FACT(B66+B65-1)/(FACT(B65)*FACT(B66-1))</f>
         <v>10</v>
       </c>
-      <c r="F66" s="20" t="s">
+      <c r="F66" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F66:M66"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A42:C42"/>
     <mergeCell ref="F40:L40"/>
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="A56:C56"/>
@@ -4650,6 +5350,828 @@
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="F29:M29"/>
+    <mergeCell ref="F66:M66"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A42:C42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97020900-602C-4ACF-BC8B-559721B0C6F0}">
+  <dimension ref="B2:I62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="17">
+        <f>_xlfn.COMBINA(C17,C16)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="C22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="H22" s="18">
+        <f>E22/E23</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="18">
+        <f>5/15</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="E34" s="18">
+        <f>E32/E33</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="H45" s="19">
+        <f>_xlfn.COMBINA(C42,D43)</f>
+        <v>35</v>
+      </c>
+      <c r="I45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="C53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="C54" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="E55" s="18">
+        <f>E53/E54</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="D62" s="6">
+        <f>D60/D61</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B36:H36"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F4BA3B-D2D8-4A92-AAF7-D8A89F4FEBB2}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21">
+      <c r="A1" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="F2" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="F3" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="F4" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="36"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="36"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25">
+      <c r="A18" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="39"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A14:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5A4A63-C068-4060-A2A9-8664D3ED9E04}">
+  <dimension ref="A1:S66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="O66" sqref="O66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21">
+      <c r="A1" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="40"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="43">
+        <v>2</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="L23" s="36"/>
+      <c r="M23" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="K25" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="43">
+        <v>4</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="L43" s="36"/>
+      <c r="M43" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="K44" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="K45" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B64" s="36"/>
+      <c r="C64" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:S24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:S44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
